--- a/NetAgent/src/main/resources/Downloads/AgentActivityChart.xlsx
+++ b/NetAgent/src/main/resources/Downloads/AgentActivityChart.xlsx
@@ -294,7 +294,7 @@
       </c>
       <c s="3" t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">05/21/2023</t>
+          <t xml:space="preserve">08/15/2023</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="H7">
@@ -304,7 +304,7 @@
       </c>
       <c s="3" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">05/31/2023</t>
+          <t xml:space="preserve">08/25/2023</t>
         </is>
       </c>
     </row>
@@ -324,7 +324,7 @@
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="1.08332992125984" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 5/30/2023 10:11 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : selenium.automation &amp;R&amp;"Arial,Regular"&amp;9Page &amp;P of &amp;N </oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 8/24/2023 11:01 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : selenium.automation &amp;R&amp;"Arial,Regular"&amp;9Page &amp;P of &amp;N </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
